--- a/Crawl/TourData.xlsx
+++ b/Crawl/TourData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Máy tính\Learn Backend\Crawl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Máy tính\Project-I\Crawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57899944-C9AD-4A2E-A051-986F4CB71E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14706C0-0C0A-4C43-80A5-4BE315F5934C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="554">
   <si>
     <t>TO2380</t>
   </si>
@@ -2034,11 +2034,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2065,8 +2063,8 @@
         <v>4</v>
       </c>
       <c r="H1">
-        <f ca="1">ROUNDUP(RAND()*(10-7)+7, 1)</f>
-        <v>9.6999999999999993</v>
+        <f ca="1">ROUND(RAND()*(10-7)+7, 1)</f>
+        <v>7.8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2092,8 +2090,8 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H65" ca="1" si="0">ROUNDUP(RAND()*(10-7)+7, 1)</f>
-        <v>7.8999999999999995</v>
+        <f t="shared" ref="H2:H65" ca="1" si="0">ROUND(RAND()*(10-7)+7, 1)</f>
+        <v>7.1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2120,7 +2118,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8999999999999995</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2147,7 +2145,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2174,7 +2172,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7999999999999989</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2201,7 +2199,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2225,7 +2223,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2252,7 +2250,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2276,7 +2274,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2303,7 +2301,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8999999999999995</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2330,7 +2328,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2357,7 +2355,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3999999999999995</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2384,7 +2382,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2411,7 +2409,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2438,7 +2436,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2465,7 +2463,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8999999999999995</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2492,7 +2490,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2519,7 +2517,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2546,7 +2544,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2573,7 +2571,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7999999999999989</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2597,7 +2595,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2624,7 +2622,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2651,7 +2649,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2678,7 +2676,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2705,7 +2703,7 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2732,7 +2730,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2759,7 +2757,7 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2786,7 +2784,7 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1999999999999993</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2813,7 +2811,7 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2840,7 +2838,7 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2867,7 +2865,7 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2894,7 +2892,7 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8999999999999995</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2918,7 +2916,7 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7999999999999989</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2942,7 +2940,7 @@
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2969,7 +2967,7 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -3023,7 +3021,7 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -3050,7 +3048,7 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3077,7 +3075,7 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3104,7 +3102,7 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -3131,7 +3129,7 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -3158,7 +3156,7 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -3185,7 +3183,7 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2999999999999989</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -3212,7 +3210,7 @@
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8999999999999995</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -3266,7 +3264,7 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -3293,7 +3291,7 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -3320,7 +3318,7 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -3347,7 +3345,7 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -3374,7 +3372,7 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -3401,7 +3399,7 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1999999999999993</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -3428,7 +3426,7 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -3455,7 +3453,7 @@
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -3482,7 +3480,7 @@
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -3506,7 +3504,7 @@
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -3533,7 +3531,7 @@
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -3560,7 +3558,7 @@
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2999999999999989</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -3587,7 +3585,7 @@
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -3614,7 +3612,7 @@
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -3641,7 +3639,7 @@
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2999999999999989</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -3668,7 +3666,7 @@
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -3695,7 +3693,7 @@
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -3722,7 +3720,7 @@
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8999999999999995</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -3749,7 +3747,7 @@
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3776,7 +3774,7 @@
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3802,8 +3800,8 @@
         <v>4</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H129" ca="1" si="1">ROUNDUP(RAND()*(10-7)+7, 1)</f>
-        <v>8</v>
+        <f t="shared" ref="H66:H129" ca="1" si="1">ROUND(RAND()*(10-7)+7, 1)</f>
+        <v>9.9</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -3830,7 +3828,7 @@
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1999999999999993</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -3857,7 +3855,7 @@
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -3884,7 +3882,7 @@
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -3911,7 +3909,7 @@
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8999999999999995</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3938,7 +3936,7 @@
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8999999999999995</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -3965,153 +3963,153 @@
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1999999999999993</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
         <v>208</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F73">
-        <v>12690000</v>
+        <v>9390000</v>
       </c>
       <c r="G73" t="s">
         <v>4</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B74" t="s">
         <v>208</v>
       </c>
       <c r="C74" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F74">
-        <v>9390000</v>
+        <v>11390000</v>
       </c>
       <c r="G74" t="s">
         <v>4</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
         <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75">
-        <v>11390000</v>
+        <v>7990000</v>
       </c>
       <c r="G75" t="s">
         <v>4</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B76" t="s">
         <v>208</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D76" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76">
-        <v>7990000</v>
+        <v>12390000</v>
       </c>
       <c r="G76" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s">
         <v>208</v>
       </c>
       <c r="C77" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D77" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77">
-        <v>12390000</v>
+        <v>7990000</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s">
         <v>208</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D78" t="s">
         <v>227</v>
@@ -4120,304 +4118,304 @@
         <v>4</v>
       </c>
       <c r="F78">
-        <v>7990000</v>
+        <v>8990000</v>
       </c>
       <c r="G78" t="s">
         <v>4</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B79" t="s">
         <v>208</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F79">
-        <v>8990000</v>
+        <v>12990000</v>
       </c>
       <c r="G79" t="s">
         <v>4</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2999999999999989</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B80" t="s">
         <v>208</v>
       </c>
       <c r="C80" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D80" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80">
-        <v>12990000</v>
+        <v>8990000</v>
       </c>
       <c r="G80" t="s">
         <v>4</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B81" t="s">
         <v>208</v>
       </c>
       <c r="C81" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D81" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F81">
-        <v>8990000</v>
+        <v>11990000</v>
       </c>
       <c r="G81" t="s">
         <v>4</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B82" t="s">
         <v>208</v>
       </c>
       <c r="C82" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F82">
-        <v>11990000</v>
+        <v>51390000</v>
       </c>
       <c r="G82" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8999999999999995</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B83" t="s">
         <v>208</v>
       </c>
       <c r="C83" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D83" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="E83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F83">
-        <v>51390000</v>
+        <v>9990000</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2999999999999989</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B84" t="s">
         <v>208</v>
       </c>
       <c r="C84" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D84" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E84">
         <v>5</v>
       </c>
       <c r="F84">
-        <v>9990000</v>
+        <v>9880000</v>
       </c>
       <c r="G84" t="s">
         <v>4</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="B85" t="s">
         <v>208</v>
       </c>
       <c r="C85" t="s">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="D85" t="s">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="E85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85">
-        <v>11990000</v>
+        <v>13990000</v>
       </c>
       <c r="G85" t="s">
         <v>4</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B86" t="s">
         <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D86" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86">
-        <v>9880000</v>
+        <v>7990000</v>
       </c>
       <c r="G86" t="s">
         <v>4</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B87" t="s">
         <v>208</v>
       </c>
       <c r="C87" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D87" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87">
-        <v>13990000</v>
+        <v>22570000</v>
       </c>
       <c r="G87" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8999999999999995</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B88" t="s">
         <v>208</v>
       </c>
       <c r="C88" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D88" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88">
-        <v>7990000</v>
+        <v>14500000</v>
       </c>
       <c r="G88" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B89" t="s">
         <v>208</v>
       </c>
       <c r="C89" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D89" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="E89">
         <v>4</v>
       </c>
       <c r="F89">
-        <v>22570000</v>
+        <v>15490000</v>
       </c>
       <c r="G89" t="s">
         <v>14</v>
@@ -4429,13 +4427,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B90" t="s">
         <v>208</v>
       </c>
       <c r="C90" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D90" t="s">
         <v>224</v>
@@ -4444,160 +4442,160 @@
         <v>3</v>
       </c>
       <c r="F90">
-        <v>14500000</v>
+        <v>39390000</v>
       </c>
       <c r="G90" t="s">
         <v>14</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B91" t="s">
         <v>208</v>
       </c>
       <c r="C91" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D91" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="E91">
         <v>4</v>
       </c>
       <c r="F91">
-        <v>15490000</v>
+        <v>17680000</v>
       </c>
       <c r="G91" t="s">
         <v>14</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6999999999999993</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B92" t="s">
         <v>208</v>
       </c>
       <c r="C92" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D92" t="s">
         <v>224</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F92">
-        <v>39390000</v>
+        <v>41200000</v>
       </c>
       <c r="G92" t="s">
         <v>14</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B93" t="s">
         <v>208</v>
       </c>
       <c r="C93" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D93" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F93">
-        <v>17680000</v>
+        <v>15990000</v>
       </c>
       <c r="G93" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B94" t="s">
         <v>208</v>
       </c>
       <c r="C94" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D94" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F94">
-        <v>41200000</v>
+        <v>10490000</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B95" t="s">
         <v>208</v>
       </c>
       <c r="C95" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D95" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E95">
         <v>5</v>
       </c>
       <c r="F95">
-        <v>15990000</v>
+        <v>12990000</v>
       </c>
       <c r="G95" t="s">
         <v>4</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B96" t="s">
         <v>208</v>
       </c>
       <c r="C96" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D96" t="s">
         <v>218</v>
@@ -4605,89 +4603,89 @@
       <c r="E96">
         <v>5</v>
       </c>
-      <c r="F96">
-        <v>10490000</v>
-      </c>
       <c r="G96" t="s">
         <v>4</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B97" t="s">
         <v>208</v>
       </c>
       <c r="C97" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D97" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E97">
         <v>5</v>
       </c>
       <c r="F97">
-        <v>12990000</v>
+        <v>10990000</v>
       </c>
       <c r="G97" t="s">
         <v>4</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8999999999999995</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B98" t="s">
         <v>208</v>
       </c>
       <c r="C98" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D98" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F98">
+        <v>44990000</v>
       </c>
       <c r="G98" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B99" t="s">
         <v>208</v>
       </c>
       <c r="C99" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D99" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="E99">
         <v>5</v>
       </c>
       <c r="F99">
-        <v>10990000</v>
+        <v>33990000</v>
       </c>
       <c r="G99" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="1"/>
@@ -4696,232 +4694,232 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B100" t="s">
         <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D100" t="s">
         <v>210</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F100">
-        <v>44990000</v>
+        <v>24990000</v>
       </c>
       <c r="G100" t="s">
         <v>36</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B101" t="s">
         <v>208</v>
       </c>
       <c r="C101" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D101" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="E101">
         <v>5</v>
       </c>
       <c r="F101">
-        <v>33990000</v>
+        <v>17490000</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6999999999999993</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B102" t="s">
         <v>208</v>
       </c>
       <c r="C102" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D102" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F102">
-        <v>24990000</v>
+        <v>10490000</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B103" t="s">
         <v>208</v>
       </c>
       <c r="C103" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D103" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="E103">
         <v>5</v>
       </c>
       <c r="F103">
-        <v>17490000</v>
+        <v>13950000</v>
       </c>
       <c r="G103" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2999999999999989</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="C104" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D104" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F104">
-        <v>10490000</v>
+        <v>8990000</v>
       </c>
       <c r="G104" t="s">
         <v>4</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6999999999999993</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="C105" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D105" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E105">
         <v>5</v>
       </c>
       <c r="F105">
-        <v>13950000</v>
+        <v>6290000</v>
       </c>
       <c r="G105" t="s">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1999999999999993</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B106" t="s">
         <v>294</v>
       </c>
       <c r="C106" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D106" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F106">
-        <v>8990000</v>
+        <v>5990000</v>
       </c>
       <c r="G106" t="s">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c r="B107" t="s">
         <v>294</v>
       </c>
       <c r="C107" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="D107" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="E107">
         <v>5</v>
       </c>
       <c r="F107">
-        <v>23490000</v>
+        <v>7390000</v>
       </c>
       <c r="G107" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B108" t="s">
         <v>294</v>
       </c>
       <c r="C108" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="D108" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="E108">
         <v>5</v>
@@ -4930,541 +4928,541 @@
         <v>6290000</v>
       </c>
       <c r="G108" t="s">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B109" t="s">
         <v>294</v>
       </c>
       <c r="C109" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D109" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E109">
         <v>5</v>
       </c>
       <c r="F109">
-        <v>5990000</v>
+        <v>6490000</v>
       </c>
       <c r="G109" t="s">
-        <v>304</v>
+        <v>4</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B110" t="s">
         <v>294</v>
       </c>
       <c r="C110" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D110" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F110">
-        <v>7390000</v>
+        <v>8990000</v>
       </c>
       <c r="G110" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1999999999999993</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B111" t="s">
         <v>294</v>
       </c>
       <c r="C111" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D111" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E111">
         <v>5</v>
       </c>
       <c r="F111">
-        <v>6290000</v>
+        <v>7490000</v>
       </c>
       <c r="G111" t="s">
         <v>4</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B112" t="s">
         <v>294</v>
       </c>
       <c r="C112" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D112" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E112">
         <v>5</v>
       </c>
       <c r="F112">
-        <v>6490000</v>
+        <v>5990000</v>
       </c>
       <c r="G112" t="s">
         <v>4</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B113" t="s">
         <v>294</v>
       </c>
       <c r="C113" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D113" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F113">
-        <v>8990000</v>
+        <v>6990000</v>
       </c>
       <c r="G113" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B114" t="s">
         <v>294</v>
       </c>
       <c r="C114" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D114" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E114">
         <v>5</v>
       </c>
       <c r="F114">
-        <v>7490000</v>
+        <v>8990000</v>
       </c>
       <c r="G114" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B115" t="s">
         <v>294</v>
       </c>
       <c r="C115" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D115" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F115">
-        <v>5990000</v>
+        <v>7690000</v>
       </c>
       <c r="G115" t="s">
-        <v>4</v>
+        <v>331</v>
       </c>
       <c r="H115">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B116" t="s">
         <v>294</v>
       </c>
       <c r="C116" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="D116" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="E116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F116">
-        <v>6990000</v>
-      </c>
-      <c r="G116" t="s">
-        <v>71</v>
+        <v>8990000</v>
       </c>
       <c r="H116">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8999999999999995</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B117" t="s">
         <v>294</v>
       </c>
       <c r="C117" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="D117" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="E117">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F117">
-        <v>8990000</v>
+        <v>12290000</v>
       </c>
       <c r="G117" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H117">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B118" t="s">
         <v>294</v>
       </c>
       <c r="C118" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="D118" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F118">
-        <v>7690000</v>
+        <v>14990000</v>
       </c>
       <c r="G118" t="s">
-        <v>331</v>
+        <v>4</v>
       </c>
       <c r="H118">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B119" t="s">
         <v>294</v>
       </c>
       <c r="C119" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D119" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="E119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F119">
         <v>8990000</v>
       </c>
+      <c r="G119" t="s">
+        <v>71</v>
+      </c>
       <c r="H119">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7999999999999989</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="B120" t="s">
         <v>294</v>
       </c>
       <c r="C120" t="s">
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="D120" t="s">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="E120">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F120">
-        <v>51390000</v>
+        <v>7850000</v>
       </c>
       <c r="G120" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H120">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B121" t="s">
         <v>294</v>
       </c>
       <c r="C121" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="D121" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F121">
-        <v>12290000</v>
+        <v>9990000</v>
       </c>
       <c r="G121" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="H121">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7999999999999989</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B122" t="s">
         <v>294</v>
       </c>
       <c r="C122" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D122" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="E122">
         <v>5</v>
       </c>
       <c r="F122">
-        <v>14990000</v>
+        <v>6990000</v>
       </c>
       <c r="G122" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="H122">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B123" t="s">
         <v>294</v>
       </c>
       <c r="C123" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D123" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="E123">
         <v>5</v>
       </c>
       <c r="F123">
-        <v>8990000</v>
+        <v>7290000</v>
       </c>
       <c r="G123" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H123">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6999999999999993</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B124" t="s">
         <v>294</v>
       </c>
       <c r="C124" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D124" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="E124">
         <v>5</v>
       </c>
       <c r="F124">
-        <v>7850000</v>
+        <v>13550000</v>
       </c>
       <c r="G124" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="H124">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B125" t="s">
         <v>294</v>
       </c>
       <c r="C125" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="D125" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="E125">
         <v>5</v>
       </c>
       <c r="F125">
-        <v>9990000</v>
+        <v>6690000</v>
       </c>
       <c r="G125" t="s">
         <v>71</v>
       </c>
       <c r="H125">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6999999999999993</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B126" t="s">
         <v>294</v>
       </c>
       <c r="C126" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="D126" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="E126">
         <v>5</v>
       </c>
       <c r="F126">
-        <v>6990000</v>
+        <v>8680000</v>
       </c>
       <c r="G126" t="s">
         <v>71</v>
       </c>
       <c r="H126">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7999999999999989</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B127" t="s">
         <v>294</v>
       </c>
       <c r="C127" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="D127" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="E127">
         <v>5</v>
       </c>
       <c r="F127">
-        <v>7290000</v>
+        <v>12490000</v>
       </c>
       <c r="G127" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="H127">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1999999999999993</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B128" t="s">
         <v>294</v>
       </c>
       <c r="C128" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="D128" t="s">
-        <v>303</v>
+        <v>367</v>
       </c>
       <c r="E128">
         <v>5</v>
       </c>
       <c r="F128">
-        <v>13550000</v>
+        <v>6650000</v>
       </c>
       <c r="G128" t="s">
         <v>71</v>
@@ -5476,349 +5474,349 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B129" t="s">
         <v>294</v>
       </c>
       <c r="C129" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="D129" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E129">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F129">
-        <v>6690000</v>
+        <v>9390000</v>
       </c>
       <c r="G129" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H129">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B130" t="s">
         <v>294</v>
       </c>
       <c r="C130" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="D130" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E130">
         <v>5</v>
       </c>
       <c r="F130">
-        <v>8680000</v>
+        <v>7790000</v>
       </c>
       <c r="G130" t="s">
         <v>71</v>
       </c>
       <c r="H130">
-        <f t="shared" ref="H130:H193" ca="1" si="2">ROUNDUP(RAND()*(10-7)+7, 1)</f>
-        <v>8.5</v>
+        <f t="shared" ref="H130:H193" ca="1" si="2">ROUND(RAND()*(10-7)+7, 1)</f>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="B131" t="s">
         <v>294</v>
       </c>
       <c r="C131" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="D131" t="s">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="E131">
         <v>5</v>
       </c>
       <c r="F131">
-        <v>12490000</v>
+        <v>6290000</v>
       </c>
       <c r="G131" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H131">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B132" t="s">
         <v>294</v>
       </c>
       <c r="C132" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="D132" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="E132">
         <v>5</v>
       </c>
       <c r="F132">
-        <v>6650000</v>
+        <v>6990000</v>
       </c>
       <c r="G132" t="s">
         <v>71</v>
       </c>
       <c r="H132">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B133" t="s">
         <v>294</v>
       </c>
       <c r="C133" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D133" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="E133">
         <v>4</v>
       </c>
       <c r="F133">
-        <v>9390000</v>
+        <v>6490000</v>
       </c>
       <c r="G133" t="s">
-        <v>4</v>
+        <v>331</v>
       </c>
       <c r="H133">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1999999999999993</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B134" t="s">
         <v>294</v>
       </c>
       <c r="C134" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D134" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="E134">
         <v>5</v>
       </c>
       <c r="F134">
-        <v>7790000</v>
+        <v>6990000</v>
       </c>
       <c r="G134" t="s">
         <v>71</v>
       </c>
       <c r="H134">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B135" t="s">
         <v>294</v>
       </c>
       <c r="C135" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D135" t="s">
-        <v>299</v>
+        <v>385</v>
       </c>
       <c r="E135">
         <v>5</v>
       </c>
       <c r="F135">
-        <v>6290000</v>
+        <v>12990000</v>
       </c>
       <c r="G135" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="H135">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B136" t="s">
         <v>294</v>
       </c>
       <c r="C136" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D136" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E136">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F136">
-        <v>6990000</v>
+        <v>9990000</v>
       </c>
       <c r="G136" t="s">
         <v>71</v>
       </c>
       <c r="H136">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="B137" t="s">
         <v>294</v>
       </c>
       <c r="C137" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D137" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="E137">
         <v>4</v>
       </c>
       <c r="F137">
-        <v>6490000</v>
+        <v>10990000</v>
       </c>
       <c r="G137" t="s">
-        <v>331</v>
+        <v>71</v>
       </c>
       <c r="H137">
         <f t="shared" ca="1" si="2"/>
-        <v>8.7999999999999989</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B138" t="s">
         <v>294</v>
       </c>
       <c r="C138" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="D138" t="s">
-        <v>299</v>
+        <v>394</v>
       </c>
       <c r="E138">
         <v>5</v>
       </c>
       <c r="F138">
-        <v>6990000</v>
+        <v>12990000</v>
       </c>
       <c r="G138" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H138">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B139" t="s">
         <v>294</v>
       </c>
       <c r="C139" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D139" t="s">
-        <v>385</v>
+        <v>327</v>
       </c>
       <c r="E139">
         <v>5</v>
       </c>
       <c r="F139">
-        <v>12990000</v>
+        <v>10490000</v>
       </c>
       <c r="G139" t="s">
         <v>71</v>
       </c>
       <c r="H139">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="B140" t="s">
         <v>294</v>
       </c>
       <c r="C140" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D140" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="E140">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F140">
-        <v>9990000</v>
+        <v>72990000</v>
       </c>
       <c r="G140" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H140">
         <f t="shared" ca="1" si="2"/>
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="B141" t="s">
-        <v>294</v>
+        <v>401</v>
       </c>
       <c r="C141" t="s">
-        <v>286</v>
+        <v>402</v>
       </c>
       <c r="D141" t="s">
-        <v>259</v>
+        <v>403</v>
       </c>
       <c r="E141">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F141">
-        <v>17490000</v>
+        <v>19990000</v>
       </c>
       <c r="G141" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H141">
         <f t="shared" ca="1" si="2"/>
@@ -5827,232 +5825,232 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="B142" t="s">
-        <v>294</v>
+        <v>401</v>
       </c>
       <c r="C142" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="D142" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="E142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F142">
-        <v>10990000</v>
+        <v>15990000</v>
       </c>
       <c r="G142" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H142">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="B143" t="s">
-        <v>294</v>
+        <v>401</v>
       </c>
       <c r="C143" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="D143" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F143">
-        <v>12990000</v>
+        <v>17380000</v>
       </c>
       <c r="G143" t="s">
         <v>4</v>
       </c>
       <c r="H143">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B144" t="s">
-        <v>294</v>
+        <v>401</v>
       </c>
       <c r="C144" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D144" t="s">
-        <v>327</v>
+        <v>412</v>
       </c>
       <c r="E144">
         <v>5</v>
       </c>
       <c r="F144">
-        <v>10490000</v>
+        <v>13990000</v>
       </c>
       <c r="G144" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H144">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B145" t="s">
-        <v>294</v>
+        <v>401</v>
       </c>
       <c r="C145" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D145" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="E145">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F145">
-        <v>72990000</v>
+        <v>14990000</v>
       </c>
       <c r="G145" t="s">
         <v>4</v>
       </c>
       <c r="H145">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="B146" t="s">
         <v>401</v>
       </c>
       <c r="C146" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="D146" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="E146">
         <v>7</v>
       </c>
       <c r="F146">
-        <v>19990000</v>
+        <v>21990000</v>
       </c>
       <c r="G146" t="s">
         <v>4</v>
       </c>
       <c r="H146">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="B147" t="s">
         <v>401</v>
       </c>
       <c r="C147" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="D147" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="E147">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F147">
-        <v>15990000</v>
+        <v>17990000</v>
       </c>
       <c r="G147" t="s">
         <v>4</v>
       </c>
       <c r="H147">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2999999999999989</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="B148" t="s">
         <v>401</v>
       </c>
       <c r="C148" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D148" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="E148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F148">
-        <v>17380000</v>
+        <v>21990000</v>
       </c>
       <c r="G148" t="s">
         <v>4</v>
       </c>
       <c r="H148">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="B149" t="s">
         <v>401</v>
       </c>
       <c r="C149" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="D149" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="E149">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F149">
-        <v>13990000</v>
+        <v>49990000</v>
       </c>
       <c r="G149" t="s">
         <v>4</v>
       </c>
       <c r="H149">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B150" t="s">
         <v>401</v>
       </c>
       <c r="C150" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="D150" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="E150">
         <v>6</v>
@@ -6065,810 +6063,810 @@
       </c>
       <c r="H150">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7999999999999989</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="B151" t="s">
         <v>401</v>
       </c>
       <c r="C151" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="D151" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="E151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F151">
-        <v>21990000</v>
+        <v>19990000</v>
       </c>
       <c r="G151" t="s">
         <v>4</v>
       </c>
       <c r="H151">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="B152" t="s">
         <v>401</v>
       </c>
       <c r="C152" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="D152" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="E152">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F152">
-        <v>17990000</v>
+        <v>29990000</v>
       </c>
       <c r="G152" t="s">
         <v>4</v>
       </c>
       <c r="H152">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3999999999999995</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="B153" t="s">
         <v>401</v>
       </c>
       <c r="C153" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="D153" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="E153">
         <v>7</v>
       </c>
       <c r="F153">
-        <v>21990000</v>
+        <v>24790000</v>
       </c>
       <c r="G153" t="s">
         <v>4</v>
       </c>
       <c r="H153">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B154" t="s">
         <v>401</v>
       </c>
       <c r="C154" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D154" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="E154">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F154">
-        <v>49990000</v>
+        <v>12990000</v>
       </c>
       <c r="G154" t="s">
         <v>4</v>
       </c>
       <c r="H154">
         <f t="shared" ca="1" si="2"/>
-        <v>8.5</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="B155" t="s">
         <v>401</v>
       </c>
       <c r="C155" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="D155" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="E155">
         <v>6</v>
       </c>
       <c r="F155">
-        <v>14990000</v>
+        <v>16990000</v>
       </c>
       <c r="G155" t="s">
         <v>4</v>
       </c>
       <c r="H155">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B156" t="s">
         <v>401</v>
       </c>
       <c r="C156" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="D156" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="E156">
         <v>6</v>
       </c>
       <c r="F156">
-        <v>19990000</v>
+        <v>13990000</v>
       </c>
       <c r="G156" t="s">
         <v>4</v>
       </c>
       <c r="H156">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="B157" t="s">
         <v>401</v>
       </c>
       <c r="C157" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D157" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="E157">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F157">
-        <v>29990000</v>
+        <v>17990000</v>
       </c>
       <c r="G157" t="s">
         <v>4</v>
       </c>
       <c r="H157">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="B158" t="s">
         <v>401</v>
       </c>
       <c r="C158" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="D158" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="E158">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F158">
-        <v>24790000</v>
+        <v>17990000</v>
       </c>
       <c r="G158" t="s">
         <v>4</v>
       </c>
       <c r="H158">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="B159" t="s">
         <v>401</v>
       </c>
       <c r="C159" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="D159" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="E159">
         <v>5</v>
       </c>
       <c r="F159">
-        <v>12990000</v>
+        <v>16990000</v>
       </c>
       <c r="G159" t="s">
         <v>4</v>
       </c>
       <c r="H159">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="B160" t="s">
         <v>401</v>
       </c>
       <c r="C160" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="D160" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="E160">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F160">
-        <v>16990000</v>
+        <v>9950000</v>
       </c>
       <c r="G160" t="s">
         <v>4</v>
       </c>
       <c r="H160">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="B161" t="s">
         <v>401</v>
       </c>
       <c r="C161" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="D161" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E161">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F161">
-        <v>13990000</v>
+        <v>21690000</v>
       </c>
       <c r="G161" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="H161">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="B162" t="s">
         <v>401</v>
       </c>
       <c r="C162" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="D162" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="E162">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F162">
-        <v>17990000</v>
+        <v>27990000</v>
       </c>
       <c r="G162" t="s">
         <v>4</v>
       </c>
       <c r="H162">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="B163" t="s">
         <v>401</v>
       </c>
       <c r="C163" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="D163" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="E163">
         <v>5</v>
       </c>
       <c r="F163">
-        <v>17990000</v>
+        <v>13990000</v>
       </c>
       <c r="G163" t="s">
         <v>4</v>
       </c>
       <c r="H163">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8999999999999995</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="B164" t="s">
         <v>401</v>
       </c>
       <c r="C164" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="D164" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="E164">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F164">
-        <v>16990000</v>
+        <v>17950000</v>
       </c>
       <c r="G164" t="s">
         <v>4</v>
       </c>
       <c r="H164">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B165" t="s">
         <v>401</v>
       </c>
       <c r="C165" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="D165" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="E165">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F165">
-        <v>9950000</v>
+        <v>15990000</v>
       </c>
       <c r="G165" t="s">
         <v>4</v>
       </c>
       <c r="H165">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="B166" t="s">
         <v>401</v>
       </c>
       <c r="C166" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D166" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="E166">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F166">
-        <v>21690000</v>
+        <v>13990000</v>
       </c>
       <c r="G166" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="H166">
         <f t="shared" ca="1" si="2"/>
-        <v>9.2999999999999989</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="B167" t="s">
         <v>401</v>
       </c>
       <c r="C167" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="D167" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="E167">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F167">
-        <v>27990000</v>
+        <v>13990000</v>
       </c>
       <c r="G167" t="s">
         <v>4</v>
       </c>
       <c r="H167">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7999999999999989</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="B168" t="s">
         <v>401</v>
       </c>
       <c r="C168" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="D168" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="E168">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F168">
-        <v>13990000</v>
+        <v>22900000</v>
       </c>
       <c r="G168" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="H168">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6999999999999993</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="B169" t="s">
         <v>401</v>
       </c>
       <c r="C169" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="D169" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="E169">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F169">
-        <v>17950000</v>
+        <v>18990000</v>
       </c>
       <c r="G169" t="s">
         <v>4</v>
       </c>
       <c r="H169">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B170" t="s">
         <v>401</v>
       </c>
       <c r="C170" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="D170" t="s">
-        <v>412</v>
+        <v>487</v>
       </c>
       <c r="E170">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F170">
-        <v>15990000</v>
+        <v>16990000</v>
       </c>
       <c r="G170" t="s">
         <v>4</v>
       </c>
       <c r="H170">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="B171" t="s">
         <v>401</v>
       </c>
       <c r="C171" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="D171" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="E171">
         <v>6</v>
       </c>
       <c r="F171">
-        <v>13990000</v>
+        <v>27690000</v>
       </c>
       <c r="G171" t="s">
         <v>4</v>
       </c>
       <c r="H171">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B172" t="s">
         <v>401</v>
       </c>
       <c r="C172" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D172" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="E172">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F172">
-        <v>13990000</v>
+        <v>15490000</v>
       </c>
       <c r="G172" t="s">
         <v>4</v>
       </c>
       <c r="H172">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6999999999999993</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="B173" t="s">
         <v>401</v>
       </c>
       <c r="C173" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D173" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="E173">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F173">
-        <v>22900000</v>
+        <v>19990000</v>
       </c>
       <c r="G173" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="H173">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B174" t="s">
         <v>401</v>
       </c>
       <c r="C174" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D174" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="E174">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F174">
-        <v>18990000</v>
+        <v>16990000</v>
       </c>
       <c r="G174" t="s">
         <v>4</v>
       </c>
       <c r="H174">
         <f t="shared" ca="1" si="2"/>
-        <v>8.5</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="B175" t="s">
         <v>401</v>
       </c>
       <c r="C175" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="D175" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="E175">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F175">
-        <v>16990000</v>
+        <v>28880000</v>
       </c>
       <c r="G175" t="s">
         <v>4</v>
       </c>
       <c r="H175">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="B176" t="s">
         <v>401</v>
       </c>
       <c r="C176" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="D176" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="E176">
         <v>6</v>
       </c>
       <c r="F176">
-        <v>27690000</v>
+        <v>18990000</v>
       </c>
       <c r="G176" t="s">
         <v>4</v>
       </c>
       <c r="H176">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="B177" t="s">
         <v>401</v>
       </c>
       <c r="C177" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="D177" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="E177">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F177">
-        <v>15490000</v>
+        <v>22990000</v>
       </c>
       <c r="G177" t="s">
         <v>4</v>
       </c>
       <c r="H177">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="B178" t="s">
-        <v>401</v>
+        <v>509</v>
       </c>
       <c r="C178" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D178" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="E178">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F178">
-        <v>19990000</v>
+        <v>12990000</v>
       </c>
       <c r="G178" t="s">
         <v>4</v>
       </c>
       <c r="H178">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2999999999999989</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="B179" t="s">
-        <v>401</v>
+        <v>509</v>
       </c>
       <c r="C179" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="D179" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="E179">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F179">
-        <v>16990000</v>
+        <v>11990000</v>
       </c>
       <c r="G179" t="s">
         <v>4</v>
       </c>
       <c r="H179">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7999999999999989</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="B180" t="s">
-        <v>401</v>
+        <v>509</v>
       </c>
       <c r="C180" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D180" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="E180">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F180">
-        <v>28880000</v>
+        <v>13990000</v>
       </c>
       <c r="G180" t="s">
         <v>4</v>
@@ -6880,121 +6878,118 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="B181" t="s">
-        <v>401</v>
+        <v>509</v>
       </c>
       <c r="C181" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="D181" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="E181">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F181">
-        <v>18990000</v>
+        <v>14950000</v>
       </c>
       <c r="G181" t="s">
         <v>4</v>
       </c>
       <c r="H181">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B182" t="s">
-        <v>401</v>
+        <v>509</v>
       </c>
       <c r="C182" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="D182" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="E182">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F182">
-        <v>22990000</v>
+        <v>15990000</v>
       </c>
       <c r="G182" t="s">
         <v>4</v>
       </c>
       <c r="H182">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="B183" t="s">
         <v>509</v>
       </c>
       <c r="C183" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="D183" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="E183">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>12990000</v>
-      </c>
-      <c r="G183" t="s">
-        <v>4</v>
+        <v>2990000</v>
       </c>
       <c r="H183">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="B184" t="s">
         <v>509</v>
       </c>
       <c r="C184" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="D184" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="E184">
         <v>5</v>
       </c>
       <c r="F184">
-        <v>11990000</v>
+        <v>14990000</v>
       </c>
       <c r="G184" t="s">
         <v>4</v>
       </c>
       <c r="H184">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="B185" t="s">
         <v>509</v>
       </c>
       <c r="C185" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="D185" t="s">
         <v>516</v>
@@ -7003,361 +6998,229 @@
         <v>5</v>
       </c>
       <c r="F185">
-        <v>13990000</v>
+        <v>12790000</v>
       </c>
       <c r="G185" t="s">
         <v>4</v>
       </c>
       <c r="H185">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3999999999999995</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="B186" t="s">
         <v>509</v>
       </c>
       <c r="C186" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="D186" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="E186">
         <v>5</v>
       </c>
       <c r="F186">
-        <v>14950000</v>
+        <v>11990000</v>
       </c>
       <c r="G186" t="s">
         <v>4</v>
       </c>
       <c r="H186">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="B187" t="s">
         <v>509</v>
       </c>
       <c r="C187" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="D187" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="E187">
         <v>5</v>
       </c>
       <c r="F187">
-        <v>15990000</v>
+        <v>17880000</v>
       </c>
       <c r="G187" t="s">
         <v>4</v>
       </c>
       <c r="H187">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1999999999999993</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="B188" t="s">
         <v>509</v>
       </c>
       <c r="C188" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="D188" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F188">
-        <v>2990000</v>
+        <v>14950000</v>
+      </c>
+      <c r="G188" t="s">
+        <v>4</v>
       </c>
       <c r="H188">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="B189" t="s">
         <v>509</v>
       </c>
       <c r="C189" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="D189" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="E189">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F189">
-        <v>14990000</v>
+        <v>24990000</v>
       </c>
       <c r="G189" t="s">
         <v>4</v>
       </c>
       <c r="H189">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="B190" t="s">
         <v>509</v>
       </c>
       <c r="C190" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="D190" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="E190">
         <v>5</v>
       </c>
       <c r="F190">
-        <v>12790000</v>
+        <v>13990000</v>
       </c>
       <c r="G190" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="H190">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1999999999999993</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="B191" t="s">
         <v>509</v>
       </c>
       <c r="C191" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="D191" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="E191">
         <v>5</v>
       </c>
       <c r="F191">
-        <v>11990000</v>
+        <v>12390000</v>
       </c>
       <c r="G191" t="s">
         <v>4</v>
       </c>
       <c r="H191">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7999999999999989</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="B192" t="s">
         <v>509</v>
       </c>
       <c r="C192" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="D192" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="E192">
         <v>5</v>
       </c>
       <c r="F192">
-        <v>17880000</v>
+        <v>13990000</v>
       </c>
       <c r="G192" t="s">
         <v>4</v>
       </c>
       <c r="H192">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="B193" t="s">
         <v>509</v>
       </c>
       <c r="C193" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="D193" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="E193">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F193">
-        <v>14950000</v>
+        <v>17990000</v>
       </c>
       <c r="G193" t="s">
         <v>4</v>
       </c>
       <c r="H193">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8999999999999995</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>539</v>
-      </c>
-      <c r="B194" t="s">
-        <v>509</v>
-      </c>
-      <c r="C194" t="s">
-        <v>540</v>
-      </c>
-      <c r="D194" t="s">
-        <v>541</v>
-      </c>
-      <c r="E194">
-        <v>6</v>
-      </c>
-      <c r="F194">
-        <v>24990000</v>
-      </c>
-      <c r="G194" t="s">
-        <v>4</v>
-      </c>
-      <c r="H194">
-        <f t="shared" ref="H194:H198" ca="1" si="3">ROUNDUP(RAND()*(10-7)+7, 1)</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>542</v>
-      </c>
-      <c r="B195" t="s">
-        <v>509</v>
-      </c>
-      <c r="C195" t="s">
-        <v>543</v>
-      </c>
-      <c r="D195" t="s">
-        <v>544</v>
-      </c>
-      <c r="E195">
-        <v>5</v>
-      </c>
-      <c r="F195">
-        <v>13990000</v>
-      </c>
-      <c r="G195" t="s">
-        <v>71</v>
-      </c>
-      <c r="H195">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>545</v>
-      </c>
-      <c r="B196" t="s">
-        <v>509</v>
-      </c>
-      <c r="C196" t="s">
-        <v>546</v>
-      </c>
-      <c r="D196" t="s">
-        <v>547</v>
-      </c>
-      <c r="E196">
-        <v>5</v>
-      </c>
-      <c r="F196">
-        <v>12390000</v>
-      </c>
-      <c r="G196" t="s">
-        <v>4</v>
-      </c>
-      <c r="H196">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.1999999999999993</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>548</v>
-      </c>
-      <c r="B197" t="s">
-        <v>509</v>
-      </c>
-      <c r="C197" t="s">
-        <v>549</v>
-      </c>
-      <c r="D197" t="s">
-        <v>550</v>
-      </c>
-      <c r="E197">
-        <v>5</v>
-      </c>
-      <c r="F197">
-        <v>13990000</v>
-      </c>
-      <c r="G197" t="s">
-        <v>4</v>
-      </c>
-      <c r="H197">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.2999999999999989</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>551</v>
-      </c>
-      <c r="B198" t="s">
-        <v>509</v>
-      </c>
-      <c r="C198" t="s">
-        <v>552</v>
-      </c>
-      <c r="D198" t="s">
-        <v>553</v>
-      </c>
-      <c r="E198">
-        <v>4</v>
-      </c>
-      <c r="F198">
-        <v>17990000</v>
-      </c>
-      <c r="G198" t="s">
-        <v>4</v>
-      </c>
-      <c r="H198">
-        <f t="shared" ca="1" si="3"/>
         <v>9.6999999999999993</v>
       </c>
     </row>
